--- a/TradingSimula_18-2022/TF-Boll-TM.xlsx
+++ b/TradingSimula_18-2022/TF-Boll-TM.xlsx
@@ -158,12 +158,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EquityCurve'!$A$3:$A$148</f>
+              <f>'EquityCurve'!$A$3:$A$296</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EquityCurve'!$B$2:$B$148</f>
+              <f>'EquityCurve'!$B$2:$B$296</f>
             </numRef>
           </val>
         </ser>
@@ -566,7 +566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B149"/>
+  <dimension ref="A1:B297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -591,1178 +591,2362 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>40207</v>
+        <v>36556</v>
       </c>
       <c r="B3" t="n">
-        <v>-2980.000000000006</v>
+        <v>-22107.70000000025</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>40235</v>
+        <v>36585</v>
       </c>
       <c r="B4" t="n">
-        <v>-4212.500000000005</v>
+        <v>-91940.52500000027</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>40268</v>
+        <v>36616</v>
       </c>
       <c r="B5" t="n">
-        <v>-4687.500000000009</v>
+        <v>-72352.44500000041</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>40298</v>
+        <v>36644</v>
       </c>
       <c r="B6" t="n">
-        <v>-4445.000000000005</v>
+        <v>-91877.88250000036</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>40326</v>
+        <v>36677</v>
       </c>
       <c r="B7" t="n">
-        <v>-11787.50000000002</v>
+        <v>-101960.8575000004</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>40359</v>
+        <v>36707</v>
       </c>
       <c r="B8" t="n">
-        <v>-10342.50000000003</v>
+        <v>-117819.9575000004</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>40389</v>
+        <v>36738</v>
       </c>
       <c r="B9" t="n">
-        <v>-13417.50000000003</v>
+        <v>-132248.2075</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>40421</v>
+        <v>36769</v>
       </c>
       <c r="B10" t="n">
-        <v>-12967.50000000001</v>
+        <v>-189784.7574999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>40451</v>
+        <v>36798</v>
       </c>
       <c r="B11" t="n">
-        <v>524.9999999999663</v>
+        <v>-190098.4074999997</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>40480</v>
+        <v>36830</v>
       </c>
       <c r="B12" t="n">
-        <v>1454.999999999961</v>
+        <v>-174858.2924999995</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>40512</v>
+        <v>36860</v>
       </c>
       <c r="B13" t="n">
-        <v>1454.999999999961</v>
+        <v>-186926.6424999997</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>40543</v>
+        <v>36889</v>
       </c>
       <c r="B14" t="n">
-        <v>1454.999999999961</v>
+        <v>-168451.8424999998</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>40574</v>
+        <v>36922</v>
       </c>
       <c r="B15" t="n">
-        <v>34.99999999997908</v>
+        <v>-215723.1674999996</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>40602</v>
+        <v>36950</v>
       </c>
       <c r="B16" t="n">
-        <v>3369.999999999947</v>
+        <v>-242718.7174999994</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>40633</v>
+        <v>36980</v>
       </c>
       <c r="B17" t="n">
-        <v>-2730.000000000053</v>
+        <v>-213144.4074999989</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>40662</v>
+        <v>37011</v>
       </c>
       <c r="B18" t="n">
-        <v>1719.999999999958</v>
+        <v>-222917.7574999989</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>40694</v>
+        <v>37042</v>
       </c>
       <c r="B19" t="n">
-        <v>7169.999999999952</v>
+        <v>-257540.857499999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>40724</v>
+        <v>37071</v>
       </c>
       <c r="B20" t="n">
-        <v>7169.999999999952</v>
+        <v>-264681.5899999992</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>40753</v>
+        <v>37103</v>
       </c>
       <c r="B21" t="n">
-        <v>12129.99999999994</v>
+        <v>-307337.5199999996</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>40786</v>
+        <v>37134</v>
       </c>
       <c r="B22" t="n">
-        <v>1829.999999999976</v>
+        <v>-327988.1199999995</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>40816</v>
+        <v>37162</v>
       </c>
       <c r="B23" t="n">
-        <v>17670.00000000002</v>
+        <v>-368670.5699999996</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>40847</v>
+        <v>37195</v>
       </c>
       <c r="B24" t="n">
-        <v>17670.00000000002</v>
+        <v>-358232.8449999996</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>40877</v>
+        <v>37225</v>
       </c>
       <c r="B25" t="n">
-        <v>17670.00000000002</v>
+        <v>-349555.7449999996</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>40907</v>
+        <v>37256</v>
       </c>
       <c r="B26" t="n">
-        <v>13760.00000000003</v>
+        <v>-348978.0174999996</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>40939</v>
+        <v>37287</v>
       </c>
       <c r="B27" t="n">
-        <v>16510.00000000003</v>
+        <v>-376086.1424999998</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>40968</v>
+        <v>37315</v>
       </c>
       <c r="B28" t="n">
-        <v>13435.00000000005</v>
+        <v>-380886.3649999997</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>40998</v>
+        <v>37343</v>
       </c>
       <c r="B29" t="n">
-        <v>13435.00000000005</v>
+        <v>-369475.3199999994</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>41029</v>
+        <v>37376</v>
       </c>
       <c r="B30" t="n">
-        <v>13435.00000000005</v>
+        <v>-374226.4999999994</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>41060</v>
+        <v>37407</v>
       </c>
       <c r="B31" t="n">
-        <v>28297.50000000004</v>
+        <v>-352909.6999999995</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>41089</v>
+        <v>37435</v>
       </c>
       <c r="B32" t="n">
-        <v>28297.50000000004</v>
+        <v>-321972.5549999992</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>41121</v>
+        <v>37468</v>
       </c>
       <c r="B33" t="n">
-        <v>28297.50000000004</v>
+        <v>-309699.6549999992</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>41152</v>
+        <v>37498</v>
       </c>
       <c r="B34" t="n">
-        <v>36302.50000000001</v>
+        <v>-323565.329999999</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>41180</v>
+        <v>37529</v>
       </c>
       <c r="B35" t="n">
-        <v>43195.00000000001</v>
+        <v>-314088.6674999989</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>41213</v>
+        <v>37560</v>
       </c>
       <c r="B36" t="n">
-        <v>43195.00000000001</v>
+        <v>-316059.2174999989</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>41243</v>
+        <v>37589</v>
       </c>
       <c r="B37" t="n">
-        <v>43195.00000000001</v>
+        <v>-329871.0924999986</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B38" t="n">
-        <v>47195.00000000001</v>
+        <v>-371985.2774999989</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>41305</v>
+        <v>37652</v>
       </c>
       <c r="B39" t="n">
-        <v>45085.00000000002</v>
+        <v>-382761.7774999989</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>41333</v>
+        <v>37680</v>
       </c>
       <c r="B40" t="n">
-        <v>55019.99999999999</v>
+        <v>-383410.5424999991</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>41362</v>
+        <v>37711</v>
       </c>
       <c r="B41" t="n">
-        <v>56844.99999999998</v>
+        <v>-389406.9999999992</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>41394</v>
+        <v>37741</v>
       </c>
       <c r="B42" t="n">
-        <v>59982.49999999999</v>
+        <v>-391751.9999999992</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>41425</v>
+        <v>37771</v>
       </c>
       <c r="B43" t="n">
-        <v>59982.49999999999</v>
+        <v>-420102.0224999991</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>41453</v>
+        <v>37802</v>
       </c>
       <c r="B44" t="n">
-        <v>59982.49999999999</v>
+        <v>-417624.8224999991</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>41486</v>
+        <v>37833</v>
       </c>
       <c r="B45" t="n">
-        <v>59982.49999999999</v>
+        <v>-360544.0224999989</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>41516</v>
+        <v>37862</v>
       </c>
       <c r="B46" t="n">
-        <v>56907.49999999999</v>
+        <v>-361607.5224999989</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B47" t="n">
-        <v>56907.49999999999</v>
+        <v>-384878.8949999989</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>41578</v>
+        <v>37925</v>
       </c>
       <c r="B48" t="n">
-        <v>56907.49999999999</v>
+        <v>-399833.1449999989</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>41607</v>
+        <v>37953</v>
       </c>
       <c r="B49" t="n">
-        <v>50994.99999999999</v>
+        <v>-422644.4449999989</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B50" t="n">
-        <v>47784.99999999996</v>
+        <v>-404644.4874999992</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>41670</v>
+        <v>38016</v>
       </c>
       <c r="B51" t="n">
-        <v>44572.49999999996</v>
+        <v>-397916.7274999991</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>41698</v>
+        <v>38044</v>
       </c>
       <c r="B52" t="n">
-        <v>40187.49999999994</v>
+        <v>-397859.2524999991</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B53" t="n">
-        <v>48344.99999999994</v>
+        <v>-405400.7624999991</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>41759</v>
+        <v>38107</v>
       </c>
       <c r="B54" t="n">
-        <v>48344.99999999994</v>
+        <v>-413854.2324999991</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>41789</v>
+        <v>38135</v>
       </c>
       <c r="B55" t="n">
-        <v>45719.99999999993</v>
+        <v>-410385.6074999991</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B56" t="n">
-        <v>42219.99999999993</v>
+        <v>-534623.9574999992</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>41851</v>
+        <v>38198</v>
       </c>
       <c r="B57" t="n">
-        <v>39582.49999999993</v>
+        <v>-546723.6924999992</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>41880</v>
+        <v>38230</v>
       </c>
       <c r="B58" t="n">
-        <v>37407.49999999994</v>
+        <v>-591805.4824999995</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B59" t="n">
-        <v>46207.49999999993</v>
+        <v>-538939.0574999992</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>41943</v>
+        <v>38289</v>
       </c>
       <c r="B60" t="n">
-        <v>47119.99999999994</v>
+        <v>-464024.7574999993</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>41971</v>
+        <v>38321</v>
       </c>
       <c r="B61" t="n">
-        <v>52257.49999999994</v>
+        <v>-478027.7874999991</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B62" t="n">
-        <v>52257.49999999994</v>
+        <v>-481342.8124999991</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>42034</v>
+        <v>38383</v>
       </c>
       <c r="B63" t="n">
-        <v>54142.49999999995</v>
+        <v>-487782.1124999991</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>42062</v>
+        <v>38411</v>
       </c>
       <c r="B64" t="n">
-        <v>54142.49999999995</v>
+        <v>-576060.9124999988</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B65" t="n">
-        <v>51092.49999999995</v>
+        <v>-661822.9624999983</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>42124</v>
+        <v>38471</v>
       </c>
       <c r="B66" t="n">
-        <v>51804.99999999994</v>
+        <v>-668270.0424999984</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>42153</v>
+        <v>38503</v>
       </c>
       <c r="B67" t="n">
-        <v>48042.49999999995</v>
+        <v>-614199.0924999987</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B68" t="n">
-        <v>46679.99999999995</v>
+        <v>-663453.242499999</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>42216</v>
+        <v>38562</v>
       </c>
       <c r="B69" t="n">
-        <v>60759.99999999994</v>
+        <v>-700643.7674999989</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>42247</v>
+        <v>38595</v>
       </c>
       <c r="B70" t="n">
-        <v>62914.99999999993</v>
+        <v>-736738.9274999991</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B71" t="n">
-        <v>62914.99999999993</v>
+        <v>-711400.8774999997</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>42307</v>
+        <v>38656</v>
       </c>
       <c r="B72" t="n">
-        <v>57304.99999999993</v>
+        <v>-706188.2899999998</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>42338</v>
+        <v>38686</v>
       </c>
       <c r="B73" t="n">
-        <v>62142.49999999992</v>
+        <v>-698455.2899999998</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>42369</v>
+        <v>38716</v>
       </c>
       <c r="B74" t="n">
-        <v>62652.49999999993</v>
+        <v>-719602.6699999997</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>42398</v>
+        <v>38748</v>
       </c>
       <c r="B75" t="n">
-        <v>58702.49999999993</v>
+        <v>-707196.4199999997</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>42429</v>
+        <v>38776</v>
       </c>
       <c r="B76" t="n">
-        <v>60602.49999999993</v>
+        <v>-716833.4599999997</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B77" t="n">
-        <v>59502.49999999993</v>
+        <v>-712164.9849999998</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>42489</v>
+        <v>38835</v>
       </c>
       <c r="B78" t="n">
-        <v>59889.99999999993</v>
+        <v>-692545.9349999997</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>42521</v>
+        <v>38868</v>
       </c>
       <c r="B79" t="n">
-        <v>59889.99999999993</v>
+        <v>-684395.4099999997</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B80" t="n">
-        <v>54094.99999999993</v>
+        <v>-687662.1349999998</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>42580</v>
+        <v>38929</v>
       </c>
       <c r="B81" t="n">
-        <v>61974.99999999991</v>
+        <v>-682849.4924999996</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>42613</v>
+        <v>38960</v>
       </c>
       <c r="B82" t="n">
-        <v>61974.99999999991</v>
+        <v>-702374.1749999997</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>42643</v>
+        <v>38989</v>
       </c>
       <c r="B83" t="n">
-        <v>61974.99999999991</v>
+        <v>-679615.2749999997</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>42674</v>
+        <v>39021</v>
       </c>
       <c r="B84" t="n">
-        <v>61949.99999999991</v>
+        <v>-680631.2124999997</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>42704</v>
+        <v>39051</v>
       </c>
       <c r="B85" t="n">
-        <v>68742.49999999993</v>
+        <v>-440683.05</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>42734</v>
+        <v>39080</v>
       </c>
       <c r="B86" t="n">
-        <v>71037.49999999993</v>
+        <v>-448080.83</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>42766</v>
+        <v>39113</v>
       </c>
       <c r="B87" t="n">
-        <v>71037.49999999993</v>
+        <v>-438742.0274999999</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>42794</v>
+        <v>39141</v>
       </c>
       <c r="B88" t="n">
-        <v>71037.49999999993</v>
+        <v>-363144.9475000005</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>42825</v>
+        <v>39171</v>
       </c>
       <c r="B89" t="n">
-        <v>71037.49999999993</v>
+        <v>-375240.6775000005</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>42853</v>
+        <v>39202</v>
       </c>
       <c r="B90" t="n">
-        <v>65652.49999999994</v>
+        <v>-209481.2625000004</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>42886</v>
+        <v>39233</v>
       </c>
       <c r="B91" t="n">
-        <v>60852.49999999993</v>
+        <v>-223681.7525000003</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>42916</v>
+        <v>39262</v>
       </c>
       <c r="B92" t="n">
-        <v>56727.49999999993</v>
+        <v>13042.44749999923</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>42947</v>
+        <v>39294</v>
       </c>
       <c r="B93" t="n">
-        <v>54829.99999999993</v>
+        <v>19655.82499999922</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>42978</v>
+        <v>39325</v>
       </c>
       <c r="B94" t="n">
-        <v>57564.99999999993</v>
+        <v>235267.8974999989</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>43007</v>
+        <v>39353</v>
       </c>
       <c r="B95" t="n">
-        <v>57439.99999999993</v>
+        <v>248655.8974999986</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>43039</v>
+        <v>39386</v>
       </c>
       <c r="B96" t="n">
-        <v>57439.99999999993</v>
+        <v>-61152.02750000187</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>43069</v>
+        <v>39416</v>
       </c>
       <c r="B97" t="n">
-        <v>57539.99999999994</v>
+        <v>-356404.8275000011</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>43098</v>
+        <v>39447</v>
       </c>
       <c r="B98" t="n">
-        <v>52952.49999999993</v>
+        <v>-356253.852500001</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>43131</v>
+        <v>39478</v>
       </c>
       <c r="B99" t="n">
-        <v>50202.49999999993</v>
+        <v>-237693.3750000011</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>43159</v>
+        <v>39507</v>
       </c>
       <c r="B100" t="n">
-        <v>47682.49999999993</v>
+        <v>-155218.7250000024</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>43188</v>
+        <v>39538</v>
       </c>
       <c r="B101" t="n">
-        <v>46179.99999999996</v>
+        <v>-152705.9750000024</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>43220</v>
+        <v>39568</v>
       </c>
       <c r="B102" t="n">
-        <v>42949.99999999995</v>
+        <v>-172067.5050000022</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>43251</v>
+        <v>39598</v>
       </c>
       <c r="B103" t="n">
-        <v>44929.99999999994</v>
+        <v>-178165.6550000023</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>43280</v>
+        <v>39629</v>
       </c>
       <c r="B104" t="n">
-        <v>44314.99999999997</v>
+        <v>-495526.4700000008</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>43312</v>
+        <v>39660</v>
       </c>
       <c r="B105" t="n">
-        <v>51472.49999999996</v>
+        <v>-738077.2324999993</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>43343</v>
+        <v>39689</v>
       </c>
       <c r="B106" t="n">
-        <v>53317.49999999996</v>
+        <v>-329513.9324999985</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>43371</v>
+        <v>39721</v>
       </c>
       <c r="B107" t="n">
-        <v>53317.49999999996</v>
+        <v>-317654.3724999985</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>43404</v>
+        <v>39752</v>
       </c>
       <c r="B108" t="n">
-        <v>53317.49999999996</v>
+        <v>-297788.5874999985</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>43434</v>
+        <v>39780</v>
       </c>
       <c r="B109" t="n">
-        <v>53317.49999999996</v>
+        <v>-285663.7074999984</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B110" t="n">
-        <v>59697.49999999996</v>
+        <v>-279239.2274999984</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>43496</v>
+        <v>39843</v>
       </c>
       <c r="B111" t="n">
-        <v>60904.99999999995</v>
+        <v>-258259.0774999984</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>43524</v>
+        <v>39871</v>
       </c>
       <c r="B112" t="n">
-        <v>63079.99999999995</v>
+        <v>-194025.6274999975</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>43553</v>
+        <v>39903</v>
       </c>
       <c r="B113" t="n">
-        <v>62779.99999999995</v>
+        <v>-162885.9024999977</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>43585</v>
+        <v>39933</v>
       </c>
       <c r="B114" t="n">
-        <v>60234.99999999995</v>
+        <v>-166510.7524999977</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>43616</v>
+        <v>39962</v>
       </c>
       <c r="B115" t="n">
-        <v>61149.99999999996</v>
+        <v>20718.10250000162</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>43644</v>
+        <v>39994</v>
       </c>
       <c r="B116" t="n">
-        <v>61604.99999999995</v>
+        <v>15415.30250000164</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>43677</v>
+        <v>40025</v>
       </c>
       <c r="B117" t="n">
-        <v>65142.49999999995</v>
+        <v>15588.08500000159</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>43707</v>
+        <v>40056</v>
       </c>
       <c r="B118" t="n">
-        <v>65167.49999999994</v>
+        <v>12651.33500000159</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B119" t="n">
-        <v>62554.99999999994</v>
+        <v>261411.3350000018</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>43769</v>
+        <v>40116</v>
       </c>
       <c r="B120" t="n">
-        <v>59804.99999999995</v>
+        <v>260447.0000000018</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>43798</v>
+        <v>40147</v>
       </c>
       <c r="B121" t="n">
-        <v>58774.99999999996</v>
+        <v>267401.3225000018</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B122" t="n">
-        <v>55442.49999999995</v>
+        <v>265122.0075000018</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>43861</v>
+        <v>40207</v>
       </c>
       <c r="B123" t="n">
-        <v>56029.99999999994</v>
+        <v>219934.4275000015</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>43889</v>
+        <v>40235</v>
       </c>
       <c r="B124" t="n">
-        <v>53439.99999999994</v>
+        <v>341595.1775000019</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B125" t="n">
-        <v>52842.49999999994</v>
+        <v>299938.9675000006</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>43951</v>
+        <v>40298</v>
       </c>
       <c r="B126" t="n">
-        <v>57792.49999999994</v>
+        <v>10381.60750000079</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>43980</v>
+        <v>40326</v>
       </c>
       <c r="B127" t="n">
-        <v>57792.49999999994</v>
+        <v>-614796.9299999983</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B128" t="n">
-        <v>55717.49999999994</v>
+        <v>-1055390.369999998</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44043</v>
+        <v>40389</v>
       </c>
       <c r="B129" t="n">
-        <v>69602.49999999993</v>
+        <v>-1050777.279999999</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44074</v>
+        <v>40421</v>
       </c>
       <c r="B130" t="n">
-        <v>69602.49999999993</v>
+        <v>-1081700.494999998</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B131" t="n">
-        <v>69602.49999999993</v>
+        <v>-1052134.914999999</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44134</v>
+        <v>40480</v>
       </c>
       <c r="B132" t="n">
-        <v>67214.99999999993</v>
+        <v>-1060758.929999999</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44165</v>
+        <v>40512</v>
       </c>
       <c r="B133" t="n">
-        <v>77389.99999999991</v>
+        <v>-1050242.242499999</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B134" t="n">
-        <v>76699.99999999991</v>
+        <v>-1035967.599999999</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44225</v>
+        <v>40574</v>
       </c>
       <c r="B135" t="n">
-        <v>59779.99999999991</v>
+        <v>-1038519.909999999</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44253</v>
+        <v>40602</v>
       </c>
       <c r="B136" t="n">
-        <v>69184.9999999999</v>
+        <v>-684798.5999999994</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44286</v>
+        <v>40633</v>
       </c>
       <c r="B137" t="n">
-        <v>66109.9999999999</v>
+        <v>-689093.6649999993</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44316</v>
+        <v>40662</v>
       </c>
       <c r="B138" t="n">
-        <v>66109.9999999999</v>
+        <v>-672829.1199999993</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44344</v>
+        <v>40694</v>
       </c>
       <c r="B139" t="n">
-        <v>65764.99999999988</v>
+        <v>-975480.8324999985</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44377</v>
+        <v>40724</v>
       </c>
       <c r="B140" t="n">
-        <v>56834.9999999999</v>
+        <v>-994980.0474999986</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44407</v>
+        <v>40753</v>
       </c>
       <c r="B141" t="n">
-        <v>53759.99999999989</v>
+        <v>-983998.5224999986</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44439</v>
+        <v>40786</v>
       </c>
       <c r="B142" t="n">
-        <v>52622.49999999989</v>
+        <v>-1773334.1875</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44469</v>
+        <v>40816</v>
       </c>
       <c r="B143" t="n">
-        <v>46874.99999999989</v>
+        <v>-329283.9375000033</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44498</v>
+        <v>40847</v>
       </c>
       <c r="B144" t="n">
-        <v>48412.49999999989</v>
+        <v>-348319.0375000035</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44530</v>
+        <v>40877</v>
       </c>
       <c r="B145" t="n">
-        <v>45362.49999999989</v>
+        <v>-353333.3875000035</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44561</v>
+        <v>40907</v>
       </c>
       <c r="B146" t="n">
-        <v>42287.49999999988</v>
+        <v>-361131.5875000033</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44592</v>
+        <v>40939</v>
       </c>
       <c r="B147" t="n">
-        <v>42287.49999999988</v>
+        <v>-307088.080000003</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44620</v>
+        <v>40968</v>
       </c>
       <c r="B148" t="n">
-        <v>36697.49999999985</v>
+        <v>-296307.6725000049</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
+        <v>40998</v>
+      </c>
+      <c r="B149" t="n">
+        <v>-291127.3475000049</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>41029</v>
+      </c>
+      <c r="B150" t="n">
+        <v>-293517.530000005</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>41060</v>
+      </c>
+      <c r="B151" t="n">
+        <v>-443303.7800000043</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>41089</v>
+      </c>
+      <c r="B152" t="n">
+        <v>-453610.0800000043</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>41121</v>
+      </c>
+      <c r="B153" t="n">
+        <v>-444249.5075000043</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>41152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>-186593.7400000051</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>41180</v>
+      </c>
+      <c r="B155" t="n">
+        <v>70782.75999999416</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>41213</v>
+      </c>
+      <c r="B156" t="n">
+        <v>64917.85749999408</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>41243</v>
+      </c>
+      <c r="B157" t="n">
+        <v>48791.38499999439</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>41274</v>
+      </c>
+      <c r="B158" t="n">
+        <v>449116.1349999953</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>41305</v>
+      </c>
+      <c r="B159" t="n">
+        <v>456270.6949999954</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>41333</v>
+      </c>
+      <c r="B160" t="n">
+        <v>448039.7149999994</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>41361</v>
+      </c>
+      <c r="B161" t="n">
+        <v>368302.6774999979</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>41394</v>
+      </c>
+      <c r="B162" t="n">
+        <v>455622.7699999966</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>41425</v>
+      </c>
+      <c r="B163" t="n">
+        <v>457194.7199999968</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>41453</v>
+      </c>
+      <c r="B164" t="n">
+        <v>455291.7049999968</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>41486</v>
+      </c>
+      <c r="B165" t="n">
+        <v>461466.1899999968</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>41516</v>
+      </c>
+      <c r="B166" t="n">
+        <v>401896.8899999956</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>41547</v>
+      </c>
+      <c r="B167" t="n">
+        <v>391416.2224999955</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>41578</v>
+      </c>
+      <c r="B168" t="n">
+        <v>397181.1724999956</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>41607</v>
+      </c>
+      <c r="B169" t="n">
+        <v>255646.822499995</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>41639</v>
+      </c>
+      <c r="B170" t="n">
+        <v>530862.9974999962</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>41670</v>
+      </c>
+      <c r="B171" t="n">
+        <v>525968.7799999962</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>41698</v>
+      </c>
+      <c r="B172" t="n">
+        <v>96453.97999999781</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>41729</v>
+      </c>
+      <c r="B173" t="n">
+        <v>89958.64249999878</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>41759</v>
+      </c>
+      <c r="B174" t="n">
+        <v>82826.74499999874</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>41789</v>
+      </c>
+      <c r="B175" t="n">
+        <v>-96133.23000000113</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>41820</v>
+      </c>
+      <c r="B176" t="n">
+        <v>-95957.00500000053</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>41851</v>
+      </c>
+      <c r="B177" t="n">
+        <v>35071.09499999678</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>41880</v>
+      </c>
+      <c r="B178" t="n">
+        <v>18778.79499999668</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>41912</v>
+      </c>
+      <c r="B179" t="n">
+        <v>168454.1599999959</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>41943</v>
+      </c>
+      <c r="B180" t="n">
+        <v>-144941.3650000019</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>41971</v>
+      </c>
+      <c r="B181" t="n">
+        <v>84613.52749999797</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>42004</v>
+      </c>
+      <c r="B182" t="n">
+        <v>83360.05249999833</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>42034</v>
+      </c>
+      <c r="B183" t="n">
+        <v>133203.6474999981</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>42062</v>
+      </c>
+      <c r="B184" t="n">
+        <v>131167.3799999982</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>42094</v>
+      </c>
+      <c r="B185" t="n">
+        <v>121516.4799999982</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>42124</v>
+      </c>
+      <c r="B186" t="n">
+        <v>217289.7299999978</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>42153</v>
+      </c>
+      <c r="B187" t="n">
+        <v>208313.1299999985</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>42185</v>
+      </c>
+      <c r="B188" t="n">
+        <v>173557.8299999989</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>42216</v>
+      </c>
+      <c r="B189" t="n">
+        <v>111151.414999999</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>42247</v>
+      </c>
+      <c r="B190" t="n">
+        <v>106676.2249999989</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>42277</v>
+      </c>
+      <c r="B191" t="n">
+        <v>101785.4424999989</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>42307</v>
+      </c>
+      <c r="B192" t="n">
+        <v>-170930.3550000008</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>42338</v>
+      </c>
+      <c r="B193" t="n">
+        <v>-155857.0175000004</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>42369</v>
+      </c>
+      <c r="B194" t="n">
+        <v>-159456.2875000004</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>42398</v>
+      </c>
+      <c r="B195" t="n">
+        <v>-243737.1875000004</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>42429</v>
+      </c>
+      <c r="B196" t="n">
+        <v>-265886.0725000006</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>42460</v>
+      </c>
+      <c r="B197" t="n">
+        <v>-217667.6025000011</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>42489</v>
+      </c>
+      <c r="B198" t="n">
+        <v>-224777.202500001</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>42521</v>
+      </c>
+      <c r="B199" t="n">
+        <v>-227549.3475000011</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>42551</v>
+      </c>
+      <c r="B200" t="n">
+        <v>-345384.3425000004</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>42580</v>
+      </c>
+      <c r="B201" t="n">
+        <v>-323034.2775000004</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>42613</v>
+      </c>
+      <c r="B202" t="n">
+        <v>-328991.9350000004</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>42643</v>
+      </c>
+      <c r="B203" t="n">
+        <v>-337854.4350000004</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>42674</v>
+      </c>
+      <c r="B204" t="n">
+        <v>-422471.4225</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>42704</v>
+      </c>
+      <c r="B205" t="n">
+        <v>-298973.6224999988</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>42734</v>
+      </c>
+      <c r="B206" t="n">
+        <v>-289830.8824999988</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>42766</v>
+      </c>
+      <c r="B207" t="n">
+        <v>-286516.8624999988</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>42794</v>
+      </c>
+      <c r="B208" t="n">
+        <v>-285898.8299999988</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>42825</v>
+      </c>
+      <c r="B209" t="n">
+        <v>-304122.9099999988</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>42853</v>
+      </c>
+      <c r="B210" t="n">
+        <v>-308791.0724999987</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>42886</v>
+      </c>
+      <c r="B211" t="n">
+        <v>-597867.0324999982</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>42916</v>
+      </c>
+      <c r="B212" t="n">
+        <v>-609122.5974999982</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>42947</v>
+      </c>
+      <c r="B213" t="n">
+        <v>-587198.4974999988</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>42978</v>
+      </c>
+      <c r="B214" t="n">
+        <v>-599579.7074999987</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>43007</v>
+      </c>
+      <c r="B215" t="n">
+        <v>-536621.8774999985</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>43039</v>
+      </c>
+      <c r="B216" t="n">
+        <v>-534056.0274999985</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>43069</v>
+      </c>
+      <c r="B217" t="n">
+        <v>-587272.1524999983</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>43098</v>
+      </c>
+      <c r="B218" t="n">
+        <v>-526444.8124999967</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>43131</v>
+      </c>
+      <c r="B219" t="n">
+        <v>-791013.3924999966</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>43159</v>
+      </c>
+      <c r="B220" t="n">
+        <v>-791497.9674999963</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>43188</v>
+      </c>
+      <c r="B221" t="n">
+        <v>-876150.1174999962</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>43220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>-1089941.237499997</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>43251</v>
+      </c>
+      <c r="B223" t="n">
+        <v>-1076156.319999996</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>43280</v>
+      </c>
+      <c r="B224" t="n">
+        <v>-1652008.419999993</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>43312</v>
+      </c>
+      <c r="B225" t="n">
+        <v>-1609392.369999992</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>43343</v>
+      </c>
+      <c r="B226" t="n">
+        <v>-1601900.619999992</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>43371</v>
+      </c>
+      <c r="B227" t="n">
+        <v>-1604254.547499992</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>43404</v>
+      </c>
+      <c r="B228" t="n">
+        <v>-1678371.397499993</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>43434</v>
+      </c>
+      <c r="B229" t="n">
+        <v>-1711433.414999992</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>43465</v>
+      </c>
+      <c r="B230" t="n">
+        <v>-1693892.012499993</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>43496</v>
+      </c>
+      <c r="B231" t="n">
+        <v>-1796582.262499991</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>43524</v>
+      </c>
+      <c r="B232" t="n">
+        <v>-1765685.137499991</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>43553</v>
+      </c>
+      <c r="B233" t="n">
+        <v>-1766192.41249999</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>43585</v>
+      </c>
+      <c r="B234" t="n">
+        <v>-1766215.88749999</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>43616</v>
+      </c>
+      <c r="B235" t="n">
+        <v>-1969583.997499987</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>43644</v>
+      </c>
+      <c r="B236" t="n">
+        <v>-1959421.487499987</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>43677</v>
+      </c>
+      <c r="B237" t="n">
+        <v>-1925477.197499988</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B238" t="n">
+        <v>-2125316.514999988</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>43738</v>
+      </c>
+      <c r="B239" t="n">
+        <v>-2138556.514999988</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>43769</v>
+      </c>
+      <c r="B240" t="n">
+        <v>-2248168.137499988</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
+        <v>43798</v>
+      </c>
+      <c r="B241" t="n">
+        <v>-2269384.137499988</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="n">
+        <v>43830</v>
+      </c>
+      <c r="B242" t="n">
+        <v>-2174678.217499988</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="n">
+        <v>43861</v>
+      </c>
+      <c r="B243" t="n">
+        <v>-2524237.759999989</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="n">
+        <v>43889</v>
+      </c>
+      <c r="B244" t="n">
+        <v>-2737062.169999989</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="n">
+        <v>43921</v>
+      </c>
+      <c r="B245" t="n">
+        <v>-2392871.937499989</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="n">
+        <v>43951</v>
+      </c>
+      <c r="B246" t="n">
+        <v>-2390267.937499989</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="n">
+        <v>43980</v>
+      </c>
+      <c r="B247" t="n">
+        <v>-2395381.237499989</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="n">
+        <v>44012</v>
+      </c>
+      <c r="B248" t="n">
+        <v>-2472285.187499987</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="n">
+        <v>44043</v>
+      </c>
+      <c r="B249" t="n">
+        <v>-2356557.017499988</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="n">
+        <v>44074</v>
+      </c>
+      <c r="B250" t="n">
+        <v>-2371571.187499988</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="n">
+        <v>44104</v>
+      </c>
+      <c r="B251" t="n">
+        <v>-2377886.687499988</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="n">
+        <v>44134</v>
+      </c>
+      <c r="B252" t="n">
+        <v>-2465457.129999989</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="n">
+        <v>44165</v>
+      </c>
+      <c r="B253" t="n">
+        <v>-2619000.81999999</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="n">
+        <v>44196</v>
+      </c>
+      <c r="B254" t="n">
+        <v>-2651539.659999989</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="n">
+        <v>44225</v>
+      </c>
+      <c r="B255" t="n">
+        <v>-3971051.73999999</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="n">
+        <v>44253</v>
+      </c>
+      <c r="B256" t="n">
+        <v>-4339066.627499991</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="B257" t="n">
+        <v>-4678153.567499991</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="n">
+        <v>44316</v>
+      </c>
+      <c r="B258" t="n">
+        <v>-4637180.427499992</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="n">
+        <v>44344</v>
+      </c>
+      <c r="B259" t="n">
+        <v>-4903479.109999992</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="B260" t="n">
+        <v>-5197672.937499991</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="n">
+        <v>44407</v>
+      </c>
+      <c r="B261" t="n">
+        <v>-5196399.542499992</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="n">
+        <v>44439</v>
+      </c>
+      <c r="B262" t="n">
+        <v>-5305329.88499999</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="n">
+        <v>44469</v>
+      </c>
+      <c r="B263" t="n">
+        <v>-5400704.50499999</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="n">
+        <v>44498</v>
+      </c>
+      <c r="B264" t="n">
+        <v>-5172187.50499999</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="n">
+        <v>44530</v>
+      </c>
+      <c r="B265" t="n">
+        <v>-5160964.12499999</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="n">
+        <v>44561</v>
+      </c>
+      <c r="B266" t="n">
+        <v>-5417916.29499999</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="n">
+        <v>44592</v>
+      </c>
+      <c r="B267" t="n">
+        <v>-5513619.10999999</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="n">
+        <v>44620</v>
+      </c>
+      <c r="B268" t="n">
+        <v>-6404357.222499989</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="n">
         <v>44651</v>
       </c>
-      <c r="B149" t="n">
-        <v>46597.49999999985</v>
+      <c r="B269" t="n">
+        <v>-6906802.622499987</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="n">
+        <v>44680</v>
+      </c>
+      <c r="B270" t="n">
+        <v>-6893705.722499987</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="n">
+        <v>44712</v>
+      </c>
+      <c r="B271" t="n">
+        <v>-7438539.572499988</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B272" t="n">
+        <v>-7087418.472499989</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="n">
+        <v>44771</v>
+      </c>
+      <c r="B273" t="n">
+        <v>-7283409.222499991</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="B274" t="n">
+        <v>-7338532.472499991</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="n">
+        <v>44834</v>
+      </c>
+      <c r="B275" t="n">
+        <v>-7448244.382499991</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="n">
+        <v>44865</v>
+      </c>
+      <c r="B276" t="n">
+        <v>-7455098.072499991</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="n">
+        <v>44895</v>
+      </c>
+      <c r="B277" t="n">
+        <v>-7760556.032499989</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="n">
+        <v>44925</v>
+      </c>
+      <c r="B278" t="n">
+        <v>-7764334.63249999</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B279" t="n">
+        <v>-7757424.329999991</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="n">
+        <v>44985</v>
+      </c>
+      <c r="B280" t="n">
+        <v>-7764405.36999999</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="n">
+        <v>45016</v>
+      </c>
+      <c r="B281" t="n">
+        <v>-7901880.31249999</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B282" t="n">
+        <v>-8345741.83249999</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="n">
+        <v>45077</v>
+      </c>
+      <c r="B283" t="n">
+        <v>-8197303.477499992</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="B284" t="n">
+        <v>-8197058.502499992</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="B285" t="n">
+        <v>-8178930.962499992</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="n">
+        <v>45169</v>
+      </c>
+      <c r="B286" t="n">
+        <v>-8178368.027499992</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="n">
+        <v>45198</v>
+      </c>
+      <c r="B287" t="n">
+        <v>-8354181.327499992</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="B288" t="n">
+        <v>-7947661.812499992</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="2" t="n">
+        <v>45260</v>
+      </c>
+      <c r="B289" t="n">
+        <v>-7764036.96999999</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="2" t="n">
+        <v>45289</v>
+      </c>
+      <c r="B290" t="n">
+        <v>-7948620.664999992</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="2" t="n">
+        <v>45322</v>
+      </c>
+      <c r="B291" t="n">
+        <v>-7968731.279999992</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="2" t="n">
+        <v>45351</v>
+      </c>
+      <c r="B292" t="n">
+        <v>-7963135.287499991</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="B293" t="n">
+        <v>-7950204.787499991</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="B294" t="n">
+        <v>-7547805.562499992</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="2" t="n">
+        <v>45443</v>
+      </c>
+      <c r="B295" t="n">
+        <v>-7540491.847499991</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2" t="n">
+        <v>45471</v>
+      </c>
+      <c r="B296" t="n">
+        <v>-7545021.299999991</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="2" t="n">
+        <v>45491</v>
+      </c>
+      <c r="B297" t="n">
+        <v>-7483634.054999991</v>
       </c>
     </row>
   </sheetData>
